--- a/va_facility_data_2025-02-20/Bob Michel Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Bob%20Michel%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bob Michel Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Bob%20Michel%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb9747bbc085f4ef9b5d9440f34b3fe73"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3ca4f3a424fe492fba1daa5a54d3f232"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2e6214a449e44e0acec66110ddb5074"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd615a71b61914f88b7265fbf8fa71933"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R653820e59081488190af542acfb26620"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4afca0ff3e7f4745a17161c23afa1afb"/>
   </x:sheets>
 </x:workbook>
 </file>
